--- a/data/pca/factorExposure/factorExposure_2017-09-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02341368253117459</v>
+        <v>-0.004600775953099116</v>
       </c>
       <c r="C2">
-        <v>0.0001041749981001974</v>
+        <v>-0.03965021280311382</v>
       </c>
       <c r="D2">
-        <v>-0.01604024431991168</v>
+        <v>-0.02972823691805709</v>
       </c>
       <c r="E2">
-        <v>0.008779955247818948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02767275441260913</v>
+      </c>
+      <c r="F2">
+        <v>0.02537620159144016</v>
+      </c>
+      <c r="G2">
+        <v>0.0340110244277592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01291009021343283</v>
+        <v>-0.05045375252457202</v>
       </c>
       <c r="C3">
-        <v>0.04081598765015369</v>
+        <v>-0.0763977194270153</v>
       </c>
       <c r="D3">
-        <v>-0.008584445613097264</v>
+        <v>-0.01543048739296582</v>
       </c>
       <c r="E3">
-        <v>0.00179963052065964</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09037565635857292</v>
+      </c>
+      <c r="F3">
+        <v>0.06590027964371181</v>
+      </c>
+      <c r="G3">
+        <v>0.08142777287921252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02203761924084528</v>
+        <v>-0.05414778975654669</v>
       </c>
       <c r="C4">
-        <v>0.01423965982120626</v>
+        <v>-0.06105902829131524</v>
       </c>
       <c r="D4">
-        <v>-0.05892893424189604</v>
+        <v>-0.02343480842725528</v>
       </c>
       <c r="E4">
-        <v>-0.01762669102059028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01799099263057076</v>
+      </c>
+      <c r="F4">
+        <v>0.01368008249464004</v>
+      </c>
+      <c r="G4">
+        <v>0.05555077425225872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01508416604419115</v>
+        <v>-0.03348895040321843</v>
       </c>
       <c r="C6">
-        <v>0.01752144652616493</v>
+        <v>-0.0499221004600218</v>
       </c>
       <c r="D6">
-        <v>-0.07922464534038182</v>
+        <v>-0.01600051265617564</v>
       </c>
       <c r="E6">
-        <v>-0.009265951241689446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.0139757885337882</v>
+      </c>
+      <c r="F6">
+        <v>0.01219792185887211</v>
+      </c>
+      <c r="G6">
+        <v>0.03587344425119496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.009982765301597359</v>
+        <v>-0.0133800513272113</v>
       </c>
       <c r="C7">
-        <v>0.001816279198944055</v>
+        <v>-0.03638078980669479</v>
       </c>
       <c r="D7">
-        <v>-0.03142888052469203</v>
+        <v>-0.0134838225940271</v>
       </c>
       <c r="E7">
-        <v>-0.07274093193769987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.009958265294183262</v>
+      </c>
+      <c r="F7">
+        <v>0.007994348498438478</v>
+      </c>
+      <c r="G7">
+        <v>0.09028536494648254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.000253173898585389</v>
+        <v>0.00299936591538107</v>
       </c>
       <c r="C8">
-        <v>-0.006307897970320599</v>
+        <v>-0.01840768796443581</v>
       </c>
       <c r="D8">
-        <v>-0.005382303603880921</v>
+        <v>-0.004189175863264026</v>
       </c>
       <c r="E8">
-        <v>-0.008154978897902461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02135312785550537</v>
+      </c>
+      <c r="F8">
+        <v>0.02441642428579599</v>
+      </c>
+      <c r="G8">
+        <v>0.02702062059602252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01463345180615524</v>
+        <v>-0.02968041182813456</v>
       </c>
       <c r="C9">
-        <v>0.01307931226830179</v>
+        <v>-0.04251536398306367</v>
       </c>
       <c r="D9">
-        <v>-0.04500042444145479</v>
+        <v>-0.01631895497641216</v>
       </c>
       <c r="E9">
-        <v>-0.008059564377490634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01399651627584995</v>
+      </c>
+      <c r="F9">
+        <v>0.01937423072498741</v>
+      </c>
+      <c r="G9">
+        <v>0.04711822567806231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01149167983339973</v>
+        <v>-0.09212430615656218</v>
       </c>
       <c r="C10">
-        <v>0.1609520230954572</v>
+        <v>0.1855160327950597</v>
       </c>
       <c r="D10">
-        <v>0.1224067237552651</v>
+        <v>0.01772990785817586</v>
       </c>
       <c r="E10">
-        <v>-0.01136966754526306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01374587929408768</v>
+      </c>
+      <c r="F10">
+        <v>-0.01370409142165775</v>
+      </c>
+      <c r="G10">
+        <v>0.04687168682639947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-8.187933017234477e-05</v>
+        <v>-0.03043465744904656</v>
       </c>
       <c r="C11">
-        <v>0.004727776256074236</v>
+        <v>-0.05352631993358428</v>
       </c>
       <c r="D11">
-        <v>-0.04366176990298995</v>
+        <v>-0.002433160386454017</v>
       </c>
       <c r="E11">
-        <v>0.007536320809112965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.006758430411704425</v>
+      </c>
+      <c r="F11">
+        <v>0.02544802017222068</v>
+      </c>
+      <c r="G11">
+        <v>0.02927071221116966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005462832250477447</v>
+        <v>-0.0309574101498797</v>
       </c>
       <c r="C12">
-        <v>0.01262946242201845</v>
+        <v>-0.04560124852676688</v>
       </c>
       <c r="D12">
-        <v>-0.04603722200049539</v>
+        <v>-0.006350586741226711</v>
       </c>
       <c r="E12">
-        <v>-0.00135131841332479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0007319945944681024</v>
+      </c>
+      <c r="F12">
+        <v>0.00990427927945881</v>
+      </c>
+      <c r="G12">
+        <v>0.03244588023902252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0211262958751601</v>
+        <v>-0.01320576086756033</v>
       </c>
       <c r="C13">
-        <v>0.01112958536796323</v>
+        <v>-0.03103625458507074</v>
       </c>
       <c r="D13">
-        <v>-0.01316138248775734</v>
+        <v>-0.02510848792149501</v>
       </c>
       <c r="E13">
-        <v>0.006176751907720819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02188648281736214</v>
+      </c>
+      <c r="F13">
+        <v>0.01805932830247138</v>
+      </c>
+      <c r="G13">
+        <v>0.04412351665477778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007002884537377817</v>
+        <v>-0.007001478807771393</v>
       </c>
       <c r="C14">
-        <v>0.01227618918335929</v>
+        <v>-0.02604309744785005</v>
       </c>
       <c r="D14">
-        <v>-0.01592228717738676</v>
+        <v>-0.00881773151347013</v>
       </c>
       <c r="E14">
-        <v>-0.01230263256172716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.005418931557371888</v>
+      </c>
+      <c r="F14">
+        <v>-0.0001699835440941931</v>
+      </c>
+      <c r="G14">
+        <v>0.04930368868834806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0006830465458290248</v>
+        <v>-0.03006045971269562</v>
       </c>
       <c r="C16">
-        <v>0.01200886895105568</v>
+        <v>-0.04445557205519599</v>
       </c>
       <c r="D16">
-        <v>-0.04651878606916744</v>
+        <v>-0.001886885668058766</v>
       </c>
       <c r="E16">
-        <v>0.0001394059876062566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007345122272263474</v>
+      </c>
+      <c r="F16">
+        <v>0.01323757552177857</v>
+      </c>
+      <c r="G16">
+        <v>0.03055728976260146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01288557025389727</v>
+        <v>-0.02255946799353601</v>
       </c>
       <c r="C19">
-        <v>0.02387554486861137</v>
+        <v>-0.04726261991060079</v>
       </c>
       <c r="D19">
-        <v>-0.02109590767217926</v>
+        <v>-0.0165873080074635</v>
       </c>
       <c r="E19">
-        <v>-0.006313603733535515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05447979518390315</v>
+      </c>
+      <c r="F19">
+        <v>0.03373796334659621</v>
+      </c>
+      <c r="G19">
+        <v>0.05605989810059928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01012604404177571</v>
+        <v>-0.01056050804574667</v>
       </c>
       <c r="C20">
-        <v>0.005362216665881883</v>
+        <v>-0.03361195992641182</v>
       </c>
       <c r="D20">
-        <v>-0.01092467426192475</v>
+        <v>-0.01334970406202284</v>
       </c>
       <c r="E20">
-        <v>-0.0003892937116939273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02323385516642495</v>
+      </c>
+      <c r="F20">
+        <v>0.002754872745132833</v>
+      </c>
+      <c r="G20">
+        <v>0.0458743607775222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0139075694029417</v>
+        <v>-0.01353708074304239</v>
       </c>
       <c r="C21">
-        <v>0.02962279485187192</v>
+        <v>-0.03578715430366671</v>
       </c>
       <c r="D21">
-        <v>-0.02001389047889062</v>
+        <v>-0.01669831815157548</v>
       </c>
       <c r="E21">
-        <v>-0.02010296333861561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03141894959327011</v>
+      </c>
+      <c r="F21">
+        <v>0.01121896853616286</v>
+      </c>
+      <c r="G21">
+        <v>0.06809401470139867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004639802236822633</v>
+        <v>-0.02347126199921613</v>
       </c>
       <c r="C24">
-        <v>0.003504180427413064</v>
+        <v>-0.04734235030518936</v>
       </c>
       <c r="D24">
-        <v>-0.04316263663510655</v>
+        <v>-0.007322991749938573</v>
       </c>
       <c r="E24">
-        <v>0.002113354440690027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.002951631783734354</v>
+      </c>
+      <c r="F24">
+        <v>0.0225717347927091</v>
+      </c>
+      <c r="G24">
+        <v>0.03180471581963939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01116439099417532</v>
+        <v>-0.03872688287776273</v>
       </c>
       <c r="C25">
-        <v>0.0209915155539433</v>
+        <v>-0.05495268209335342</v>
       </c>
       <c r="D25">
-        <v>-0.04316339551119482</v>
+        <v>-0.01145644948134511</v>
       </c>
       <c r="E25">
-        <v>0.001042868731006058</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.003435364762356612</v>
+      </c>
+      <c r="F25">
+        <v>0.01880392730088477</v>
+      </c>
+      <c r="G25">
+        <v>0.03864979446374951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02234826881480777</v>
+        <v>-0.0115301739663468</v>
       </c>
       <c r="C26">
-        <v>0.008075196480090429</v>
+        <v>-0.00836171083816495</v>
       </c>
       <c r="D26">
-        <v>0.007954233567025267</v>
+        <v>-0.02358401645023297</v>
       </c>
       <c r="E26">
-        <v>-0.009810137973780216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.003709987427075924</v>
+      </c>
+      <c r="F26">
+        <v>0.002726788629991856</v>
+      </c>
+      <c r="G26">
+        <v>0.03611489523208543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.03017814411986126</v>
+        <v>-0.1170897608273844</v>
       </c>
       <c r="C28">
-        <v>0.2362742224169098</v>
+        <v>0.2284600270390452</v>
       </c>
       <c r="D28">
-        <v>0.1712517578448178</v>
+        <v>0.00870005153422221</v>
       </c>
       <c r="E28">
-        <v>-0.01927736517468714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.002436826685204368</v>
+      </c>
+      <c r="F28">
+        <v>-0.01216879533526538</v>
+      </c>
+      <c r="G28">
+        <v>0.06286924471078884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007243168826077377</v>
+        <v>-0.01073990134438584</v>
       </c>
       <c r="C29">
-        <v>0.01707467636608821</v>
+        <v>-0.01986748955087793</v>
       </c>
       <c r="D29">
-        <v>-0.01241662214348301</v>
+        <v>-0.007591358080781431</v>
       </c>
       <c r="E29">
-        <v>-0.007596559449563597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.00695869517307149</v>
+      </c>
+      <c r="F29">
+        <v>-0.008998136964666574</v>
+      </c>
+      <c r="G29">
+        <v>0.04019413473838213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02297342094382835</v>
+        <v>-0.04115304538215019</v>
       </c>
       <c r="C30">
-        <v>-0.0007516739545714868</v>
+        <v>-0.06512334907369426</v>
       </c>
       <c r="D30">
-        <v>-0.06671234958770857</v>
+        <v>-0.02812028608217901</v>
       </c>
       <c r="E30">
-        <v>0.05615623767893572</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04041038623219464</v>
+      </c>
+      <c r="F30">
+        <v>0.05494631599294699</v>
+      </c>
+      <c r="G30">
+        <v>0.01785978279538842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.007439156490176857</v>
+        <v>-0.04655702111497064</v>
       </c>
       <c r="C31">
-        <v>0.0432586867405834</v>
+        <v>-0.03300083528624913</v>
       </c>
       <c r="D31">
-        <v>-0.04320974309741151</v>
+        <v>-0.003663940825841987</v>
       </c>
       <c r="E31">
-        <v>-0.009401065067406336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.006699875954772241</v>
+      </c>
+      <c r="F31">
+        <v>-0.03080214174602604</v>
+      </c>
+      <c r="G31">
+        <v>0.03861563039265052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00730739700685749</v>
+        <v>0.003107892589430417</v>
       </c>
       <c r="C32">
-        <v>0.0151567132252627</v>
+        <v>-0.03134391011819687</v>
       </c>
       <c r="D32">
-        <v>0.000578480124562903</v>
+        <v>0.003979049505459574</v>
       </c>
       <c r="E32">
-        <v>-0.02940111870471664</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.008735676812447137</v>
+      </c>
+      <c r="F32">
+        <v>0.05061854557376085</v>
+      </c>
+      <c r="G32">
+        <v>0.05887933574195649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01211069512099127</v>
+        <v>-0.02484059186179592</v>
       </c>
       <c r="C33">
-        <v>0.02108279747137469</v>
+        <v>-0.04668842730464731</v>
       </c>
       <c r="D33">
-        <v>-0.02253354363209805</v>
+        <v>-0.0148682842985551</v>
       </c>
       <c r="E33">
-        <v>0.02239380314953203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02582498041967604</v>
+      </c>
+      <c r="F33">
+        <v>0.03088033235053944</v>
+      </c>
+      <c r="G33">
+        <v>0.04638610293153777</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004861413645851605</v>
+        <v>-0.03843383198371545</v>
       </c>
       <c r="C34">
-        <v>0.01970274313134084</v>
+        <v>-0.05643042972743041</v>
       </c>
       <c r="D34">
-        <v>-0.04780528111935848</v>
+        <v>0.004426412039298069</v>
       </c>
       <c r="E34">
-        <v>-0.007338925425424148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.004140238196459492</v>
+      </c>
+      <c r="F34">
+        <v>0.02809170266084055</v>
+      </c>
+      <c r="G34">
+        <v>0.04357819651828732</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01176287870941618</v>
+        <v>-0.01090114535418643</v>
       </c>
       <c r="C36">
-        <v>0.01771558495295836</v>
+        <v>-0.007384445423600171</v>
       </c>
       <c r="D36">
-        <v>-0.001183466528975681</v>
+        <v>-0.01156679529227984</v>
       </c>
       <c r="E36">
-        <v>-0.004088038190170964</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0005165678362212868</v>
+      </c>
+      <c r="F36">
+        <v>-0.002802464685594498</v>
+      </c>
+      <c r="G36">
+        <v>0.03169980063287375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.005875931194014548</v>
+        <v>-0.03034894869186914</v>
       </c>
       <c r="C38">
-        <v>0.02783976049612862</v>
+        <v>-0.02787619452785574</v>
       </c>
       <c r="D38">
-        <v>-0.02041835085640439</v>
+        <v>0.007326490513065665</v>
       </c>
       <c r="E38">
-        <v>-0.006507190947860905</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.00442139084814615</v>
+      </c>
+      <c r="F38">
+        <v>-0.004577889950896709</v>
+      </c>
+      <c r="G38">
+        <v>0.0415928871311975</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.00558272920401282</v>
+        <v>-0.02998604989398491</v>
       </c>
       <c r="C39">
-        <v>-0.02061364378836095</v>
+        <v>-0.08055278230320823</v>
       </c>
       <c r="D39">
-        <v>-0.09105859393131424</v>
+        <v>-0.01245692998730219</v>
       </c>
       <c r="E39">
-        <v>0.005898082601140984</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02253219754622712</v>
+      </c>
+      <c r="F39">
+        <v>0.04300549397368669</v>
+      </c>
+      <c r="G39">
+        <v>0.03259107245509461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.009952223690218732</v>
+        <v>-0.01815658857671614</v>
       </c>
       <c r="C40">
-        <v>0.009842589940457187</v>
+        <v>-0.03191017919025058</v>
       </c>
       <c r="D40">
-        <v>-0.0375856473785979</v>
+        <v>-0.01339960990844969</v>
       </c>
       <c r="E40">
-        <v>0.003184109437009403</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01845309800656553</v>
+      </c>
+      <c r="F40">
+        <v>0.02159056952416646</v>
+      </c>
+      <c r="G40">
+        <v>0.03281480076080617</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.004964320312136845</v>
+        <v>-0.01081853755566539</v>
       </c>
       <c r="C41">
-        <v>0.02002544196307482</v>
+        <v>0.0005488035388091253</v>
       </c>
       <c r="D41">
-        <v>0.01113341005357852</v>
+        <v>-0.00394958515346289</v>
       </c>
       <c r="E41">
-        <v>-0.003497818184490628</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001164329472006126</v>
+      </c>
+      <c r="F41">
+        <v>0.003771243651330434</v>
+      </c>
+      <c r="G41">
+        <v>0.02262159545117528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09415188577350229</v>
+        <v>-0.01509183155074517</v>
       </c>
       <c r="C42">
-        <v>-0.0009094839729088777</v>
+        <v>-0.04383973561187533</v>
       </c>
       <c r="D42">
-        <v>-0.2737720968708882</v>
+        <v>-0.09538286010539034</v>
       </c>
       <c r="E42">
-        <v>0.2738771645732111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04082453544420492</v>
+      </c>
+      <c r="F42">
+        <v>-0.04877586765881526</v>
+      </c>
+      <c r="G42">
+        <v>-0.1574631996840539</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.00591608436935356</v>
+        <v>-0.02753481237472433</v>
       </c>
       <c r="C43">
-        <v>0.01978151967913966</v>
+        <v>-0.009965567255690972</v>
       </c>
       <c r="D43">
-        <v>0.01667879317873493</v>
+        <v>-0.004715607753400278</v>
       </c>
       <c r="E43">
-        <v>0.001659801785893725</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.007875893731756397</v>
+      </c>
+      <c r="F43">
+        <v>0.003085981467114369</v>
+      </c>
+      <c r="G43">
+        <v>0.03241083167279624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002778751861811716</v>
+        <v>-0.01236528828164089</v>
       </c>
       <c r="C44">
-        <v>-0.0005842575053090465</v>
+        <v>-0.04928036571420834</v>
       </c>
       <c r="D44">
-        <v>-0.02490571058361132</v>
+        <v>-0.006718598107203455</v>
       </c>
       <c r="E44">
-        <v>-0.004424086804355671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01666046243556298</v>
+      </c>
+      <c r="F44">
+        <v>0.00897037474698982</v>
+      </c>
+      <c r="G44">
+        <v>0.04954740387329677</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01042704903622708</v>
+        <v>-0.005128841129202906</v>
       </c>
       <c r="C46">
-        <v>0.01764481472168141</v>
+        <v>-0.01673027876171402</v>
       </c>
       <c r="D46">
-        <v>-0.01083934317362409</v>
+        <v>-0.0116281073929552</v>
       </c>
       <c r="E46">
-        <v>-0.002796068390193299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.003510156715758912</v>
+      </c>
+      <c r="F46">
+        <v>-0.01136238819715264</v>
+      </c>
+      <c r="G46">
+        <v>0.03664256930790363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.00135312177329344</v>
+        <v>-0.07436930492823769</v>
       </c>
       <c r="C47">
-        <v>0.05511489876076582</v>
+        <v>-0.06494057540127909</v>
       </c>
       <c r="D47">
-        <v>-0.05623119058518432</v>
+        <v>0.004820299894909834</v>
       </c>
       <c r="E47">
-        <v>0.0008144838253127506</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.00782429954260804</v>
+      </c>
+      <c r="F47">
+        <v>-0.04995431278997722</v>
+      </c>
+      <c r="G47">
+        <v>0.0371053769361498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002576803585730356</v>
+        <v>-0.02008758080207149</v>
       </c>
       <c r="C48">
-        <v>0.02566222118683473</v>
+        <v>-0.009543594653588519</v>
       </c>
       <c r="D48">
-        <v>-0.01152162635184981</v>
+        <v>-0.000944352724399198</v>
       </c>
       <c r="E48">
-        <v>-0.002867582649545625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002603507335372834</v>
+      </c>
+      <c r="F48">
+        <v>-0.01132125248099053</v>
+      </c>
+      <c r="G48">
+        <v>0.0382568990524498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.002489331475527181</v>
+        <v>-0.07888110715400468</v>
       </c>
       <c r="C50">
-        <v>0.04565280876851475</v>
+        <v>-0.06677030480065954</v>
       </c>
       <c r="D50">
-        <v>-0.0609879733666237</v>
+        <v>0.003113158386563164</v>
       </c>
       <c r="E50">
-        <v>-0.02648582593700275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.009690294003779843</v>
+      </c>
+      <c r="F50">
+        <v>-0.04953913715011166</v>
+      </c>
+      <c r="G50">
+        <v>0.06210133969840507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007002278423636531</v>
+        <v>-0.008618335589383701</v>
       </c>
       <c r="C51">
-        <v>0.01945485885624509</v>
+        <v>-0.02701877971038672</v>
       </c>
       <c r="D51">
-        <v>0.01312737294012224</v>
+        <v>-0.009484157801225263</v>
       </c>
       <c r="E51">
-        <v>-0.01038563260121974</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.009269131036604643</v>
+      </c>
+      <c r="F51">
+        <v>0.0241898984084549</v>
+      </c>
+      <c r="G51">
+        <v>0.06237422153100162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.004486051793750832</v>
+        <v>-0.08330243183848679</v>
       </c>
       <c r="C53">
-        <v>0.07128786100727112</v>
+        <v>-0.08127274640621669</v>
       </c>
       <c r="D53">
-        <v>-0.1158355713983754</v>
+        <v>0.004124763885394516</v>
       </c>
       <c r="E53">
-        <v>-0.008506239311388379</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02856289995720262</v>
+      </c>
+      <c r="F53">
+        <v>-0.05462960578719436</v>
+      </c>
+      <c r="G53">
+        <v>0.04087905572080773</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001107454754470529</v>
+        <v>-0.02980320065961191</v>
       </c>
       <c r="C54">
-        <v>0.03316935951017048</v>
+        <v>-0.01011471750955437</v>
       </c>
       <c r="D54">
-        <v>0.008505962388699629</v>
+        <v>0.002913978793239466</v>
       </c>
       <c r="E54">
-        <v>-0.01145180828897402</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0005492231969059782</v>
+      </c>
+      <c r="F54">
+        <v>-0.001488898323578305</v>
+      </c>
+      <c r="G54">
+        <v>0.0415706528458749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.002016979113352354</v>
+        <v>-0.07065532803148669</v>
       </c>
       <c r="C55">
-        <v>0.05311062905716017</v>
+        <v>-0.07229629180380938</v>
       </c>
       <c r="D55">
-        <v>-0.1000810815739342</v>
+        <v>0.004469302475617529</v>
       </c>
       <c r="E55">
-        <v>0.003879002700150219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02036076794292537</v>
+      </c>
+      <c r="F55">
+        <v>-0.0519096909340265</v>
+      </c>
+      <c r="G55">
+        <v>0.02192623129185221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.001648133878737663</v>
+        <v>-0.14200144901204</v>
       </c>
       <c r="C56">
-        <v>0.09505405027218017</v>
+        <v>-0.10581478287719</v>
       </c>
       <c r="D56">
-        <v>-0.1482882397009593</v>
+        <v>0.01295078525694398</v>
       </c>
       <c r="E56">
-        <v>0.001919140169918868</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.033628388494876</v>
+      </c>
+      <c r="F56">
+        <v>-0.08077216399410406</v>
+      </c>
+      <c r="G56">
+        <v>0.01240233438096821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02361592957683458</v>
+        <v>-0.009652204420227099</v>
       </c>
       <c r="C57">
-        <v>0.02374989741235671</v>
+        <v>-0.01036791137661852</v>
       </c>
       <c r="D57">
-        <v>-0.04114650937380548</v>
+        <v>-0.02375949419706933</v>
       </c>
       <c r="E57">
-        <v>0.002218821130193001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02735589850987926</v>
+      </c>
+      <c r="F57">
+        <v>0.01675319010104108</v>
+      </c>
+      <c r="G57">
+        <v>0.02399012550117875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01000985223865337</v>
+        <v>-0.07071527238655137</v>
       </c>
       <c r="C58">
-        <v>0.08747273499865292</v>
+        <v>-0.03768999280249337</v>
       </c>
       <c r="D58">
-        <v>-0.09152661879112432</v>
+        <v>-0.01886745691734371</v>
       </c>
       <c r="E58">
-        <v>0.2052242208006936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9541424232398114</v>
+      </c>
+      <c r="F58">
+        <v>-0.1858118793262223</v>
+      </c>
+      <c r="G58">
+        <v>-0.005246501124429745</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02616594895273455</v>
+        <v>-0.1587839068081767</v>
       </c>
       <c r="C59">
-        <v>0.2462549616847349</v>
+        <v>0.2119467637070945</v>
       </c>
       <c r="D59">
-        <v>0.1715590622678073</v>
+        <v>0.01582952467232035</v>
       </c>
       <c r="E59">
-        <v>0.004581883308134109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.008546512050442366</v>
+      </c>
+      <c r="F59">
+        <v>0.005488405641667149</v>
+      </c>
+      <c r="G59">
+        <v>0.02137664477835531</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03144272486842354</v>
+        <v>-0.2867717426822348</v>
       </c>
       <c r="C60">
-        <v>0.1564755562424014</v>
+        <v>-0.09907182623223174</v>
       </c>
       <c r="D60">
-        <v>-0.07821429812035582</v>
+        <v>-0.01151084271049836</v>
       </c>
       <c r="E60">
-        <v>0.03738470330516309</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01425839352659072</v>
+      </c>
+      <c r="F60">
+        <v>0.3566154037212295</v>
+      </c>
+      <c r="G60">
+        <v>-0.1025064634707759</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002812279343614693</v>
+        <v>-0.03208801820862095</v>
       </c>
       <c r="C61">
-        <v>0.006340423170141767</v>
+        <v>-0.06523788098766617</v>
       </c>
       <c r="D61">
-        <v>-0.06551651861156071</v>
+        <v>-0.005629999338612459</v>
       </c>
       <c r="E61">
-        <v>0.002341488928432697</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.009692978701765264</v>
+      </c>
+      <c r="F61">
+        <v>0.02473384840564174</v>
+      </c>
+      <c r="G61">
+        <v>0.03091541662828466</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007093440656048322</v>
+        <v>-0.01162717886971775</v>
       </c>
       <c r="C63">
-        <v>0.007488132296348961</v>
+        <v>-0.02776264279750116</v>
       </c>
       <c r="D63">
-        <v>-0.00700646931298232</v>
+        <v>-0.00817434826600091</v>
       </c>
       <c r="E63">
-        <v>-0.009394878735264114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.005386297167612614</v>
+      </c>
+      <c r="F63">
+        <v>-0.01378579699570941</v>
+      </c>
+      <c r="G63">
+        <v>0.04426450048551452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.006810664493132921</v>
+        <v>-0.04998531704966677</v>
       </c>
       <c r="C64">
-        <v>0.02690087566743467</v>
+        <v>-0.04114798769659676</v>
       </c>
       <c r="D64">
-        <v>-0.06168196485754959</v>
+        <v>-0.005620376043689406</v>
       </c>
       <c r="E64">
-        <v>0.008972997376411881</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.005660151376214294</v>
+      </c>
+      <c r="F64">
+        <v>0.007464306259290401</v>
+      </c>
+      <c r="G64">
+        <v>0.02869530370842989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01757754243377185</v>
+        <v>-0.0811813565507529</v>
       </c>
       <c r="C65">
-        <v>0.02311461388023503</v>
+        <v>-0.06073947532630378</v>
       </c>
       <c r="D65">
-        <v>-0.09207005703873161</v>
+        <v>-0.01551110280645853</v>
       </c>
       <c r="E65">
-        <v>-0.007236309890372672</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01721004176814664</v>
+      </c>
+      <c r="F65">
+        <v>0.03458474286019975</v>
+      </c>
+      <c r="G65">
+        <v>0.01951613563490115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005338194683408027</v>
+        <v>-0.04857213472301999</v>
       </c>
       <c r="C66">
-        <v>-0.0103444819441303</v>
+        <v>-0.1138956308952791</v>
       </c>
       <c r="D66">
-        <v>-0.1186843155381914</v>
+        <v>-0.01238775658868288</v>
       </c>
       <c r="E66">
-        <v>0.01996179274543263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02818187480446678</v>
+      </c>
+      <c r="F66">
+        <v>0.05248879803351389</v>
+      </c>
+      <c r="G66">
+        <v>0.02734047886490972</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.000724136220786513</v>
+        <v>-0.05301348696217473</v>
       </c>
       <c r="C67">
-        <v>0.04672097444255013</v>
+        <v>-0.03184359491090744</v>
       </c>
       <c r="D67">
-        <v>-0.02443659538136946</v>
+        <v>0.005580861940755459</v>
       </c>
       <c r="E67">
-        <v>-0.004394282312448463</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.00151964512566589</v>
+      </c>
+      <c r="F67">
+        <v>-0.006768254113232506</v>
+      </c>
+      <c r="G67">
+        <v>0.03898038346008594</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.04456543800894211</v>
+        <v>-0.1385536036025464</v>
       </c>
       <c r="C68">
-        <v>0.2225115116434105</v>
+        <v>0.2692840826960684</v>
       </c>
       <c r="D68">
-        <v>0.1595681577410309</v>
+        <v>-0.002569086813916838</v>
       </c>
       <c r="E68">
-        <v>0.01075618385080316</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.009877754441405432</v>
+      </c>
+      <c r="F68">
+        <v>-0.03690859270888528</v>
+      </c>
+      <c r="G68">
+        <v>0.02415516821258906</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003498826370729792</v>
+        <v>-0.07600123291977767</v>
       </c>
       <c r="C69">
-        <v>0.03872018634014066</v>
+        <v>-0.0658048270165847</v>
       </c>
       <c r="D69">
-        <v>-0.05902087155681713</v>
+        <v>0.008780325693519527</v>
       </c>
       <c r="E69">
-        <v>-0.004393618537615761</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02582110058668354</v>
+      </c>
+      <c r="F69">
+        <v>-0.03263910926924767</v>
+      </c>
+      <c r="G69">
+        <v>0.03882087025112556</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03128310293994223</v>
+        <v>-0.1338669471088372</v>
       </c>
       <c r="C71">
-        <v>0.1949600177507939</v>
+        <v>0.2342333840140016</v>
       </c>
       <c r="D71">
-        <v>0.1485611999862233</v>
+        <v>0.006364250053270284</v>
       </c>
       <c r="E71">
-        <v>-0.003486519608472743</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02531055127454127</v>
+      </c>
+      <c r="F71">
+        <v>-0.006368169639109614</v>
+      </c>
+      <c r="G71">
+        <v>0.03697632338383473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002334152453449991</v>
+        <v>-0.08238863966622405</v>
       </c>
       <c r="C72">
-        <v>0.0451875198833392</v>
+        <v>-0.07356213158127134</v>
       </c>
       <c r="D72">
-        <v>-0.1307991123795652</v>
+        <v>0.007955644293406809</v>
       </c>
       <c r="E72">
-        <v>0.01887210305382001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.008205875052156697</v>
+      </c>
+      <c r="F72">
+        <v>0.03946995737975507</v>
+      </c>
+      <c r="G72">
+        <v>0.01224201711555908</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.0456872033746896</v>
+        <v>-0.3959103347577539</v>
       </c>
       <c r="C73">
-        <v>0.1911363050997246</v>
+        <v>-0.1117228887893115</v>
       </c>
       <c r="D73">
-        <v>-0.1562928904607678</v>
+        <v>-0.01774307499800278</v>
       </c>
       <c r="E73">
-        <v>0.09524521513453338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.03843899143398474</v>
+      </c>
+      <c r="F73">
+        <v>0.5467188647598475</v>
+      </c>
+      <c r="G73">
+        <v>-0.1838848377462392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0002228843583850626</v>
+        <v>-0.1112534806019642</v>
       </c>
       <c r="C74">
-        <v>0.0860472309157683</v>
+        <v>-0.1191041043609059</v>
       </c>
       <c r="D74">
-        <v>-0.1520123982787047</v>
+        <v>0.009476901802112673</v>
       </c>
       <c r="E74">
-        <v>0.009220581836396818</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01303975513665211</v>
+      </c>
+      <c r="F74">
+        <v>-0.07011234492392605</v>
+      </c>
+      <c r="G74">
+        <v>0.04796128046173229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.003674052417714908</v>
+        <v>-0.2529263245375187</v>
       </c>
       <c r="C75">
-        <v>0.2017370309311314</v>
+        <v>-0.1529082328870487</v>
       </c>
       <c r="D75">
-        <v>-0.2755549266059619</v>
+        <v>0.03003481822534903</v>
       </c>
       <c r="E75">
-        <v>0.02935457383287126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.04343805722270166</v>
+      </c>
+      <c r="F75">
+        <v>-0.1869238910903659</v>
+      </c>
+      <c r="G75">
+        <v>-0.02310778291356761</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.00411730741596246</v>
+        <v>-0.1276674934305083</v>
       </c>
       <c r="C76">
-        <v>0.1389950180401345</v>
+        <v>-0.1222641445010069</v>
       </c>
       <c r="D76">
-        <v>-0.2270338022635711</v>
+        <v>0.02062628725594742</v>
       </c>
       <c r="E76">
-        <v>-0.004158588328838724</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04389132307865935</v>
+      </c>
+      <c r="F76">
+        <v>-0.1192658362426038</v>
+      </c>
+      <c r="G76">
+        <v>0.02584861105278365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01131746110766538</v>
+        <v>-0.06545991940221199</v>
       </c>
       <c r="C77">
-        <v>0.01451770908497484</v>
+        <v>-0.06103057922757053</v>
       </c>
       <c r="D77">
-        <v>-0.05427125227224876</v>
+        <v>-0.01263187356881697</v>
       </c>
       <c r="E77">
-        <v>0.008483004094394413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04743570648092033</v>
+      </c>
+      <c r="F77">
+        <v>0.01799976369465877</v>
+      </c>
+      <c r="G77">
+        <v>0.05044107072078806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003730291099337757</v>
+        <v>-0.03868855638866372</v>
       </c>
       <c r="C78">
-        <v>0.00827914130324689</v>
+        <v>-0.05134589615550123</v>
       </c>
       <c r="D78">
-        <v>-0.06663203368023222</v>
+        <v>-0.006080891966895439</v>
       </c>
       <c r="E78">
-        <v>-0.0003950351709501409</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01898311796112023</v>
+      </c>
+      <c r="F78">
+        <v>0.04414856216344191</v>
+      </c>
+      <c r="G78">
+        <v>0.04009111407795366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01501843646122055</v>
+        <v>-0.05526179150150039</v>
       </c>
       <c r="C80">
-        <v>0.1208127500828828</v>
+        <v>-0.0620234502657438</v>
       </c>
       <c r="D80">
-        <v>-0.1660587205955445</v>
+        <v>-0.01340462500414865</v>
       </c>
       <c r="E80">
-        <v>-0.9124314349493888</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02984744369764741</v>
+      </c>
+      <c r="F80">
+        <v>0.0709589699421934</v>
+      </c>
+      <c r="G80">
+        <v>0.8796235341570566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.003355379330807404</v>
+        <v>-0.1464453558680276</v>
       </c>
       <c r="C81">
-        <v>0.12819687605412</v>
+        <v>-0.09589611811501085</v>
       </c>
       <c r="D81">
-        <v>-0.1700887348726421</v>
+        <v>0.01524430772951466</v>
       </c>
       <c r="E81">
-        <v>0.008485395087267105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.02640893298722895</v>
+      </c>
+      <c r="F81">
+        <v>-0.123560007833749</v>
+      </c>
+      <c r="G81">
+        <v>0.02338368766415531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.0916565759994246</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05278598895902906</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.004626555556484246</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07866064712008097</v>
+      </c>
+      <c r="F82">
+        <v>-0.01426102411001308</v>
+      </c>
+      <c r="G82">
+        <v>0.007584066111229722</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006566610885264413</v>
+        <v>-0.03032695683432588</v>
       </c>
       <c r="C83">
-        <v>0.02665452771139495</v>
+        <v>-0.02024395620050244</v>
       </c>
       <c r="D83">
-        <v>-0.02305349213323755</v>
+        <v>-0.005219173391030127</v>
       </c>
       <c r="E83">
-        <v>0.003823392247639995</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02297678962444679</v>
+      </c>
+      <c r="F83">
+        <v>0.02158866689299927</v>
+      </c>
+      <c r="G83">
+        <v>0.02797171947001375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01099944228974708</v>
+        <v>-0.2251889215339297</v>
       </c>
       <c r="C85">
-        <v>0.1559743761326635</v>
+        <v>-0.1517695098173318</v>
       </c>
       <c r="D85">
-        <v>-0.2607155027015521</v>
+        <v>0.01841273759404915</v>
       </c>
       <c r="E85">
-        <v>0.02951900546035453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.08989746387819747</v>
+      </c>
+      <c r="F85">
+        <v>-0.1722203375034473</v>
+      </c>
+      <c r="G85">
+        <v>-0.04686438779667929</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.006674262176177032</v>
+        <v>-0.007559286872730049</v>
       </c>
       <c r="C86">
-        <v>0.02696210459685586</v>
+        <v>-0.01450620499234355</v>
       </c>
       <c r="D86">
-        <v>-0.007145649462948642</v>
+        <v>-0.01017297807922416</v>
       </c>
       <c r="E86">
-        <v>0.02120872690242556</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02916066965495747</v>
+      </c>
+      <c r="F86">
+        <v>0.03683625408692628</v>
+      </c>
+      <c r="G86">
+        <v>0.06520025893825915</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007293969676195659</v>
+        <v>-0.01763035054033672</v>
       </c>
       <c r="C87">
-        <v>0.01193366321664155</v>
+        <v>-0.02578500742514638</v>
       </c>
       <c r="D87">
-        <v>-0.04102059663321922</v>
+        <v>-0.01129285357889032</v>
       </c>
       <c r="E87">
-        <v>0.001313548743586772</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08299321917910256</v>
+      </c>
+      <c r="F87">
+        <v>0.03411712530864471</v>
+      </c>
+      <c r="G87">
+        <v>0.05514148328322691</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02632985696229798</v>
+        <v>-0.08967630321731734</v>
       </c>
       <c r="C88">
-        <v>0.04000762141123053</v>
+        <v>-0.06309205438002205</v>
       </c>
       <c r="D88">
-        <v>-0.0319030962151303</v>
+        <v>-0.02287397406077461</v>
       </c>
       <c r="E88">
-        <v>0.003764238177892383</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.008936940114903261</v>
+      </c>
+      <c r="F88">
+        <v>-0.007147577422013977</v>
+      </c>
+      <c r="G88">
+        <v>0.03255684170235088</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.05999632509941265</v>
+        <v>-0.2250405476365678</v>
       </c>
       <c r="C89">
-        <v>0.3622739284455797</v>
+        <v>0.3649080008339302</v>
       </c>
       <c r="D89">
-        <v>0.244301663320312</v>
+        <v>0.005636154196525031</v>
       </c>
       <c r="E89">
-        <v>0.01845335421014511</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01788534409284066</v>
+      </c>
+      <c r="F89">
+        <v>-0.02372374682692946</v>
+      </c>
+      <c r="G89">
+        <v>0.03779121533484513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.04573100157224049</v>
+        <v>-0.19863184222146</v>
       </c>
       <c r="C90">
-        <v>0.278697521113446</v>
+        <v>0.3279235911467746</v>
       </c>
       <c r="D90">
-        <v>0.22518736533607</v>
+        <v>0.009487175737379734</v>
       </c>
       <c r="E90">
-        <v>0.01827479609902363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01588885831634749</v>
+      </c>
+      <c r="F90">
+        <v>-0.04376132208613561</v>
+      </c>
+      <c r="G90">
+        <v>0.008995070282750661</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0007096338353873165</v>
+        <v>-0.2016023395810327</v>
       </c>
       <c r="C91">
-        <v>0.1581044723541808</v>
+        <v>-0.1395916438450147</v>
       </c>
       <c r="D91">
-        <v>-0.239135285600453</v>
+        <v>0.02397628310496102</v>
       </c>
       <c r="E91">
-        <v>0.01399215659166397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06338167417204404</v>
+      </c>
+      <c r="F91">
+        <v>-0.1624477858859687</v>
+      </c>
+      <c r="G91">
+        <v>0.01426857562684962</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.01144052254612933</v>
+        <v>-0.2049858830764109</v>
       </c>
       <c r="C92">
-        <v>0.324349104053943</v>
+        <v>0.2593543490574164</v>
       </c>
       <c r="D92">
-        <v>0.09401968350947189</v>
+        <v>0.04737831816865152</v>
       </c>
       <c r="E92">
-        <v>0.01420341448161547</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.003995948556384109</v>
+      </c>
+      <c r="F92">
+        <v>-0.09268176630968428</v>
+      </c>
+      <c r="G92">
+        <v>0.07452200622912847</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.04314470241116239</v>
+        <v>-0.2286647233441311</v>
       </c>
       <c r="C93">
-        <v>0.3156487456004058</v>
+        <v>0.3295076794437261</v>
       </c>
       <c r="D93">
-        <v>0.2214757469531395</v>
+        <v>0.01712252350050046</v>
       </c>
       <c r="E93">
-        <v>0.04382850441458414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0007290751668028317</v>
+      </c>
+      <c r="F93">
+        <v>-0.03333993878687715</v>
+      </c>
+      <c r="G93">
+        <v>-0.0004940658889750374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02152098364436374</v>
+        <v>-0.3116364426429493</v>
       </c>
       <c r="C94">
-        <v>0.2035248725900785</v>
+        <v>-0.1877870764523009</v>
       </c>
       <c r="D94">
-        <v>-0.2514652386538085</v>
+        <v>0.01562901096485739</v>
       </c>
       <c r="E94">
-        <v>0.05964704349878827</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1200992445086091</v>
+      </c>
+      <c r="F94">
+        <v>-0.4939379147863578</v>
+      </c>
+      <c r="G94">
+        <v>-0.1521161065615994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.00488040025149038</v>
+        <v>-0.08498691139116028</v>
       </c>
       <c r="C95">
-        <v>0.05195324589413967</v>
+        <v>-0.0654797977828965</v>
       </c>
       <c r="D95">
-        <v>-0.08669970561333312</v>
+        <v>0.008127608828106063</v>
       </c>
       <c r="E95">
-        <v>0.1113149976579061</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07075148309857486</v>
+      </c>
+      <c r="F95">
+        <v>0.1686898300002733</v>
+      </c>
+      <c r="G95">
+        <v>-0.08055471597886822</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.006368859016910835</v>
+        <v>-0.1974241254766748</v>
       </c>
       <c r="C98">
-        <v>0.1617641517918849</v>
+        <v>-0.04471784153071616</v>
       </c>
       <c r="D98">
-        <v>-0.1173376380096485</v>
+        <v>0.01385928063618089</v>
       </c>
       <c r="E98">
-        <v>0.05515980254285485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.0582950108457581</v>
+      </c>
+      <c r="F98">
+        <v>0.2540763704589735</v>
+      </c>
+      <c r="G98">
+        <v>-0.03827280900574567</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007089877981112803</v>
+        <v>-0.01060107163177217</v>
       </c>
       <c r="C101">
-        <v>0.01760644147038143</v>
+        <v>-0.01998445197704669</v>
       </c>
       <c r="D101">
-        <v>-0.01304341197000856</v>
+        <v>-0.00737690728166899</v>
       </c>
       <c r="E101">
-        <v>-0.007786029866764131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.007361140165963068</v>
+      </c>
+      <c r="F101">
+        <v>-0.0108180465107263</v>
+      </c>
+      <c r="G101">
+        <v>0.04024398279249759</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01475883495366748</v>
+        <v>-0.1187238036278738</v>
       </c>
       <c r="C102">
-        <v>0.09458233184201176</v>
+        <v>-0.0846584958408292</v>
       </c>
       <c r="D102">
-        <v>-0.1302205192802305</v>
+        <v>-0.001385724466076977</v>
       </c>
       <c r="E102">
-        <v>0.01532704024735088</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03081424489393305</v>
+      </c>
+      <c r="F102">
+        <v>-0.0399458490886328</v>
+      </c>
+      <c r="G102">
+        <v>-0.0002061244559811208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001653555289641015</v>
+        <v>-0.003714075448108336</v>
       </c>
       <c r="C103">
-        <v>0.01375894683989161</v>
+        <v>-0.004754166513478252</v>
       </c>
       <c r="D103">
-        <v>-0.02577034087943747</v>
+        <v>-0.0003685038823511331</v>
       </c>
       <c r="E103">
-        <v>-0.01391675513347353</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002733336578262076</v>
+      </c>
+      <c r="F103">
+        <v>-0.008467273707526682</v>
+      </c>
+      <c r="G103">
+        <v>0.01744688639417239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9836651186083991</v>
+        <v>-0.03030060373014314</v>
       </c>
       <c r="C104">
-        <v>-0.1176557034779474</v>
+        <v>0.03948477068871981</v>
       </c>
       <c r="D104">
-        <v>0.006871175133186793</v>
+        <v>-0.987101798634297</v>
       </c>
       <c r="E104">
-        <v>-0.02580948629687561</v>
+        <v>0.04033987661146284</v>
+      </c>
+      <c r="F104">
+        <v>-0.04525893041757283</v>
+      </c>
+      <c r="G104">
+        <v>-0.009812488258788237</v>
       </c>
     </row>
   </sheetData>
